--- a/SalesforceCRM/DataSources/Automation Objectives.xlsx
+++ b/SalesforceCRM/DataSources/Automation Objectives.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Sno</t>
   </si>
@@ -52,6 +52,57 @@
   </si>
   <si>
     <t>Sending Reports to eamil</t>
+  </si>
+  <si>
+    <t>CoreFramework Integrated with any application</t>
+  </si>
+  <si>
+    <t>Make Suite XLS Files</t>
+  </si>
+  <si>
+    <t>Build a tests(TestNG Classes)</t>
+  </si>
+  <si>
+    <t>Build a BaseTest</t>
+  </si>
+  <si>
+    <t>Init the Properties Objects &amp; XLS Objects in BaseTest @BeforeTest</t>
+  </si>
+  <si>
+    <t>Build Dataprovider &amp; logic to read the data from XLS</t>
+  </si>
+  <si>
+    <t>int xls file from suite</t>
+  </si>
+  <si>
+    <t>Call the DriverScript</t>
+  </si>
+  <si>
+    <t>Check runmode for datasets</t>
+  </si>
+  <si>
+    <t>init the execution in driverscript</t>
+  </si>
+  <si>
+    <t>Pass the Properties Objects from Basetest to DriverScript</t>
+  </si>
+  <si>
+    <t>initialized keyword files &amp; functions</t>
+  </si>
+  <si>
+    <t>using RefectionAPI - dynamicKeywords invoking</t>
+  </si>
+  <si>
+    <t>Storing objects &amp; common data in Constants Class</t>
+  </si>
+  <si>
+    <t>Build the webdriver code in keywords File</t>
+  </si>
+  <si>
+    <t>Pass Objects from DriverScript to Keywords File</t>
+  </si>
+  <si>
+    <t>Close the Browser after completion for every Testcase Execution</t>
   </si>
 </sst>
 </file>
@@ -75,15 +126,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,37 +149,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -136,72 +163,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,141 +474,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4">
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4">
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4">
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4">
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
